--- a/metadata/sams-simba_metadata.xlsx
+++ b/metadata/sams-simba_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B184A839-75ED-1C40-83CF-FA6FD4122442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDD1D86-059A-2B45-B670-338CA159B455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="500" windowWidth="31060" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>SIMBA Snow Ice Mass Balance Apparatus</t>
   </si>
   <si>
-    <t>15 minute</t>
-  </si>
-  <si>
     <t>Point measurements of snow/ air temperature at 2 cm intervals on a 5 m thermistor chain intalled spanning the snow-air transition.</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t xml:space="preserve">This is a test unit owned and provided by SAMS Enterprise, contact SAMS Enterprise for further information about this instrument. </t>
+  </si>
+  <si>
+    <t>6 hour</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
   <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -864,7 +864,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -872,7 +872,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -880,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -888,7 +888,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -998,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1026,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="12"/>
@@ -1069,7 +1069,7 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1077,7 +1077,7 @@
         <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/metadata/sams-simba_metadata.xlsx
+++ b/metadata/sams-simba_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDD1D86-059A-2B45-B670-338CA159B455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125D581-7DAC-5D4D-9CDF-E3FF5A852EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="500" windowWidth="31060" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Example</t>
-  </si>
-  <si>
-    <t>Conventions</t>
   </si>
   <si>
     <t>source</t>
@@ -226,9 +223,6 @@
   </si>
   <si>
     <t>Point measurements of snow/ air temperature at 2 cm intervals on a 5 m thermistor chain intalled spanning the snow-air transition.</t>
-  </si>
-  <si>
-    <t>CF-1.6</t>
   </si>
   <si>
     <t>Heather Guy</t>
@@ -729,13 +723,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1003"/>
+  <dimension ref="A1:M1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -758,80 +752,80 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>63</v>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="21">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21">
-        <v>1001</v>
-      </c>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="22">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="22">
-        <v>1010</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>66</v>
+      <c r="B9" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>67</v>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -839,48 +833,48 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
+      <c r="B12" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>70</v>
+      <c r="B15" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>70</v>
+      <c r="B16" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>70</v>
+      <c r="B17" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -888,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -896,44 +890,44 @@
         <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
+      <c r="B20" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -941,7 +935,7 @@
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -949,24 +943,24 @@
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>53</v>
+      <c r="B26" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -974,23 +968,23 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -998,70 +992,70 @@
         <v>36</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>55</v>
+      <c r="B38" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="13" t="s">
         <v>44</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1069,19 +1063,15 @@
         <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A41" s="14"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="14"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1098,7 +1088,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1106,7 +1096,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="4"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1121,11 +1111,11 @@
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3"/>
+      <c r="A52" s="14"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="14"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1165,7 +1155,6 @@
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3"/>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3985,16 +3974,13 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="4"/>
     </row>
-    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1003" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{FAD477BD-8341-6149-AAB9-6F510B2FFD93}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{2B354C59-169B-5E44-B880-C90B85C249CE}"/>
-    <hyperlink ref="B27" r:id="rId3" xr:uid="{2E3DC703-2B1E-0941-9307-C50FACC14B59}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{2969522B-5EC0-3C43-B043-B08E78BFA902}"/>
-    <hyperlink ref="B39" r:id="rId5" xr:uid="{7556D683-8ABA-DE4C-A956-0A9238D186D6}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{FAD477BD-8341-6149-AAB9-6F510B2FFD93}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{2B354C59-169B-5E44-B880-C90B85C249CE}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{2E3DC703-2B1E-0941-9307-C50FACC14B59}"/>
+    <hyperlink ref="B24" r:id="rId4" xr:uid="{2969522B-5EC0-3C43-B043-B08E78BFA902}"/>
+    <hyperlink ref="B38" r:id="rId5" xr:uid="{7556D683-8ABA-DE4C-A956-0A9238D186D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/metadata/sams-simba_metadata.xlsx
+++ b/metadata/sams-simba_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heather/Desktop/ace-ceda-master/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4125D581-7DAC-5D4D-9CDF-E3FF5A852EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838D3A4D-2CE7-D94B-A44C-8CA5CF8DD262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6020" yWindow="500" windowWidth="31060" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>6 hour</t>
+  </si>
+  <si>
+    <t>Conventions</t>
   </si>
 </sst>
 </file>
@@ -723,13 +726,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1002"/>
+  <dimension ref="A1:M1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -749,329 +752,331 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B5" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B6" s="21">
         <v>1001</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B7" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B8" s="22">
         <v>1010</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>65</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3" t="s">
+      <c r="C36" s="17"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="14"/>
-      <c r="B41" s="4"/>
-    </row>
     <row r="42" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1088,7 +1093,7 @@
     </row>
     <row r="46" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="4"/>
     </row>
     <row r="47" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
@@ -1096,7 +1101,7 @@
     </row>
     <row r="48" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
@@ -1111,11 +1116,11 @@
       <c r="B51" s="4"/>
     </row>
     <row r="52" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="14"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="4"/>
     </row>
     <row r="53" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="3"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="4"/>
     </row>
     <row r="54" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -1155,6 +1160,7 @@
       <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
       <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -3974,13 +3980,16 @@
     <row r="1002" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1002" s="4"/>
     </row>
+    <row r="1003" spans="2:2" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1003" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{FAD477BD-8341-6149-AAB9-6F510B2FFD93}"/>
-    <hyperlink ref="B25" r:id="rId2" xr:uid="{2B354C59-169B-5E44-B880-C90B85C249CE}"/>
-    <hyperlink ref="B26" r:id="rId3" xr:uid="{2E3DC703-2B1E-0941-9307-C50FACC14B59}"/>
-    <hyperlink ref="B24" r:id="rId4" xr:uid="{2969522B-5EC0-3C43-B043-B08E78BFA902}"/>
-    <hyperlink ref="B38" r:id="rId5" xr:uid="{7556D683-8ABA-DE4C-A956-0A9238D186D6}"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{FAD477BD-8341-6149-AAB9-6F510B2FFD93}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{2B354C59-169B-5E44-B880-C90B85C249CE}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{2E3DC703-2B1E-0941-9307-C50FACC14B59}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{2969522B-5EC0-3C43-B043-B08E78BFA902}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{7556D683-8ABA-DE4C-A956-0A9238D186D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
